--- a/Kaos 2021/REKAPITULASI.xlsx
+++ b/Kaos 2021/REKAPITULASI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\Kaos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\Kaos 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589D416-CCDC-47C9-B395-4478ECEF5A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B68C6-FBC8-4B70-B8E2-6ED5E12C791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -528,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1082,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f>SUM(D2:D53)/3</f>
+        <v>1090</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1084,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C801C50D-43EE-4BA0-99C5-093CD08C00D4}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:E22"/>
     </sheetView>
   </sheetViews>
